--- a/Analysis/QuixBugs_Gemini-APR/APR_zero_shot_Gemini_1.5_Pro_Python.xlsx
+++ b/Analysis/QuixBugs_Gemini-APR/APR_zero_shot_Gemini_1.5_Pro_Python.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mraee\Desktop\Investigation\Bug Busters\Analysis\QuixBugs_Gemini-APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B86E9FB6-F97F-4401-A636-DB1E8C97219A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB5D635-BEF4-40EA-B5D2-A6F5E551B7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="-40" windowWidth="19280" windowHeight="10160" xr2:uid="{B8D909F9-275A-4EF5-A802-3F70C94E0953}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{B8D909F9-275A-4EF5-A802-3F70C94E0953}"/>
   </bookViews>
   <sheets>
     <sheet name="APR_zero_shot_Gemini_1.5_Pro_Py" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="303">
   <si>
     <t>File Name</t>
   </si>
@@ -3360,6 +3373,98 @@
 Reason: &lt;Reason for the fix&gt; (skip a line after the reason)
 Fix: &lt;Rewritten corrected code with a comment indicating where the change is made&gt;
 Note: Please do not add any additional comments after providing the fix.</t>
+  </si>
+  <si>
+    <t>Test Cases (For responses that are not identical to the correct code)</t>
+  </si>
+  <si>
+    <t>collected 9 items
+test_lcs_length.py F...F..FF                                                                     [100%]
+============================================== FAILURES =============================================== 
+___________________________________ test_lcs_length[input_data0-2] ____________________________________ 
+input_data = ['witch', 'sandwich'], expected = 2
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lcs_length(input_data, expected):
+&gt;       assert lcs_length(*input_data) == expected
+E       AssertionError: assert 4 == 2
+E        +  where 4 = lcs_length(*['witch', 'sandwich'])
+test_lcs_length.py:25: AssertionError
+___________________________________ test_lcs_length[input_data4-3] ____________________________________ 
+input_data = ['cyborg', 'cyber'], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lcs_length(input_data, expected):
+&gt;       assert lcs_length(*input_data) == expected
+E       AssertionError: assert 4 == 3
+E        +  where 4 = lcs_length(*['cyborg', 'cyber'])
+test_lcs_length.py:25: AssertionError
+___________________________________ test_lcs_length[input_data7-3] ____________________________________ 
+input_data = ['flippy', 'floppy'], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lcs_length(input_data, expected):
+&gt;       assert lcs_length(*input_data) == expected
+E       AssertionError: assert 5 == 3
+E        +  where 5 = lcs_length(*['flippy', 'floppy'])
+test_lcs_length.py:25: AssertionError
+___________________________________ test_lcs_length[input_data8-3] ____________________________________ 
+input_data = ['acbdegcedbg', 'begcfeubk'], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lcs_length(input_data, expected):
+&gt;       assert lcs_length(*input_data) == expected
+E       AssertionError: assert 6 == 3
+E        +  where 6 = lcs_length(*['acbdegcedbg', 'begcfeubk'])
+test_lcs_length.py:25: AssertionError
+======================================= short test summary info ======================================= 
+FAILED test_lcs_length.py::test_lcs_length[input_data0-2] - AssertionError: assert 4 == 2
+FAILED test_lcs_length.py::test_lcs_length[input_data4-3] - AssertionError: assert 4 == 3
+FAILED test_lcs_length.py::test_lcs_length[input_data7-3] - AssertionError: assert 5 == 3
+FAILED test_lcs_length.py::test_lcs_length[input_data8-3] - AssertionError: assert 6 == 3
+===================================== 4 failed, 5 passed in 0.29s =====================================</t>
+  </si>
+  <si>
+    <t>collected 12 items
+test_lis.py ............                                                                         [100%]
+========================================= 12 passed in 0.08s ==========================================</t>
+  </si>
+  <si>
+    <t>Recursion Error
+==================================== 13 failed, 1 passed in 18.59s ====================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collected 10 items
+test_possible_change.py ..........                                                               [100%]
+========================================= 10 passed in 0.18s ========================================== </t>
+  </si>
+  <si>
+    <t>collected 4 items
+test_shortest_path_length.py FF..                                                                [100%]
+============================================== FAILURES =============================================== 
+________________________________________________ test1 ________________________________________________ 
+    def test1():
+        """Case 1: One path
+        Output: 4
+        """
+        result = shortest_path_length(length_by_edge, node0, node1)
+&gt;       assert result == 4
+E       assert 1 == 4
+test_shortest_path_length.py:76: AssertionError
+________________________________________________ test2 ________________________________________________ 
+    def test2():
+        """Case 2: Multiple path
+        Output: 7
+        """
+        result = shortest_path_length(length_by_edge, node0, node5)
+&gt;       assert result == 7
+E       assert 10 == 7
+test_shortest_path_length.py:85: AssertionError
+======================================= short test summary info ======================================= 
+FAILED test_shortest_path_length.py::test1 - assert 1 == 4
+FAILED test_shortest_path_length.py::test2 - assert 10 == 7
+===================================== 2 failed, 2 passed in 0.18s =====================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collected 6 items
+test_sieve.py ......                                                                             [100%] 
+========================================== 6 passed in 0.07s ========================================== </t>
   </si>
 </sst>
 </file>
@@ -3861,7 +3966,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3877,6 +3982,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4253,10 +4361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B143EDAB-544B-4CCB-9F94-A0B59EB40FC4}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:E45"/>
+    <sheetView tabSelected="1" topLeftCell="H36" zoomScale="68" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4266,9 +4374,10 @@
     <col min="7" max="7" width="79.2265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="101.7265625" style="1" customWidth="1"/>
     <col min="9" max="10" width="50.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="45.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4299,8 +4408,11 @@
       <c r="J1" s="1" t="s">
         <v>291</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="339.25" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" ht="339.25" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4332,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4361,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="398.25" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" ht="398.25" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -4393,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4425,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -4457,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -4489,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -4521,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="354" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" ht="354" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -4553,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="309.75" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" ht="309.75" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -4585,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="383.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" ht="383.5" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -4617,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="368.75" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" ht="368.75" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -4649,7 +4761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -4681,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="398.25" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" ht="398.25" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -4713,7 +4825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -4745,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -4777,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -4808,8 +4920,11 @@
       <c r="J17" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K17" s="6" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -4841,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -4870,10 +4985,13 @@
         <v>268</v>
       </c>
       <c r="J19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -4902,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="398.25" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" ht="398.25" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -4934,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>104</v>
       </c>
@@ -4965,8 +5083,11 @@
       <c r="J22" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K22" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -4998,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
@@ -5030,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="398.25" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" ht="398.25" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
         <v>119</v>
       </c>
@@ -5062,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A26" s="2" t="s">
         <v>124</v>
       </c>
@@ -5090,7 +5211,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
         <v>129</v>
       </c>
@@ -5122,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="398.25" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" ht="398.25" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
         <v>134</v>
       </c>
@@ -5151,10 +5272,13 @@
         <v>276</v>
       </c>
       <c r="J28" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="383.5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" ht="383.5" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
         <v>139</v>
       </c>
@@ -5186,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="354" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" ht="354" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
         <v>144</v>
       </c>
@@ -5218,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
         <v>149</v>
       </c>
@@ -5250,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
         <v>154</v>
       </c>
@@ -5282,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
         <v>159</v>
       </c>
@@ -5314,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
         <v>164</v>
       </c>
@@ -5342,8 +5466,11 @@
       <c r="J34" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K34" s="6" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
         <v>168</v>
       </c>
@@ -5375,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A36" s="1" t="s">
         <v>173</v>
       </c>
@@ -5407,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="309.75" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" ht="309.75" x14ac:dyDescent="0.75">
       <c r="A37" s="1" t="s">
         <v>178</v>
       </c>
@@ -5436,10 +5563,13 @@
         <v>285</v>
       </c>
       <c r="J37" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>302</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="309.75" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" ht="309.75" x14ac:dyDescent="0.75">
       <c r="A38" s="1" t="s">
         <v>183</v>
       </c>
@@ -5471,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A39" s="1" t="s">
         <v>188</v>
       </c>
@@ -5503,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A40" s="1" t="s">
         <v>193</v>
       </c>
@@ -5535,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="398.25" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" ht="398.25" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
         <v>198</v>
       </c>
@@ -5567,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="398.25" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" ht="398.25" x14ac:dyDescent="0.75">
       <c r="A42" s="1" t="s">
         <v>203</v>
       </c>
@@ -5599,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
       <c r="C43" s="4" t="s">
         <v>292</v>
       </c>
@@ -5616,10 +5746,10 @@
       </c>
       <c r="J43" s="1">
         <f>COUNTIF(J2:J42,TRUE)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
       <c r="C44" s="4" t="s">
         <v>293</v>
       </c>
@@ -5636,10 +5766,10 @@
       </c>
       <c r="J44" s="1">
         <f>COUNTIF(J2:J42,FALSE)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
       <c r="C45" s="4" t="s">
         <v>294</v>
       </c>
@@ -5656,7 +5786,7 @@
       </c>
       <c r="J45" s="1">
         <f>J43/(J43+J44)*100</f>
-        <v>82.5</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
